--- a/frontend-cemos/public/assets/content/planejamento/3-md-30-m-01/script/fc5.xlsx
+++ b/frontend-cemos/public/assets/content/planejamento/3-md-30-m-01/script/fc5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,336 +468,756 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Quem é o responsável pela elaboração do Plano Setorial de Mobilização Militar (PSMM)?</t>
+          <t>De quem é a prerrogativa de definir a organização e a flexibilidade das seções do Estado-Maior Conjunto (EMCj)?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A Subchefia de Mobilização (SUBMOB) da Chefia de Logística e Mobilização (CHELOG) do EMCFA, conforme o item 5.1.1.</t>
+          <t>Do Comandante Operacional, conforme o item 5.1.1.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Pág. 37</t>
+          <t>Pág 51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Cap. 5 - Plano Setorial de Mobilização Militar</t>
+          <t>Cap. V - Estado-Maior Conjunto</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Qual é a finalidade descrita no corpo do PSMM?</t>
+          <t>Quais são as designações das seções D-2 e D-9 na estrutura do EMCj?</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Listar carências logísticas das Forças Singulares não atendidas no SISMOMIL e especificar ações complementares à Logística, conforme o item 5.3.2.</t>
+          <t>D-2 é a Seção de Inteligência e D-9 é a Seção de Assuntos Civis, conforme o item 5.1.2.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Pág. 37</t>
+          <t>Pág 51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Cap. 5 - Plano Setorial de Mobilização Militar</t>
+          <t>Cap. V - Estado-Maior Conjunto</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Para onde é enviado o PSMM após sua aprovação pelo Ministro da Defesa?</t>
+          <t>Quem propõe o Chefe do EMCj ao CEMCFA e qual critério deve ser observado?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Para a Secretaria Executiva do SINAMOB, a fim de integrar o Plano Nacional de Mobilização (PNM), conforme o item 5.1.5.</t>
+          <t>O Comandante Operacional propõe, atentando para a predominância das operações no TO/A Op, conforme o item 5.1.3.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Pág. 37</t>
+          <t>Pág 51</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Cap. 5 - Plano Setorial de Mobilização Militar</t>
+          <t>Cap. V - Estado-Maior Conjunto</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Onde devem estar listadas as carências logísticas das Forças Singulares mencionadas no PSMM?</t>
+          <t>Qual é o objetivo do estabelecimento de Oficiais de Ligação das Forças Componentes no EMCj?</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Em um anexo ao qual se fará referência no item específico do plano, conforme o item 5.3.4.1.</t>
+          <t>Proporcionar condições para uma melhor coordenação no planejamento e na execução das ações, conforme o item 5.1.4.3.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Pág. 38</t>
+          <t>Pág 52</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Cap. 5 - Plano Setorial de Mobilização Militar</t>
+          <t>Cap. V - Estado-Maior Conjunto</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Que informação financeira deve constar na Lista de Carências (LC) como fator de planejamento?</t>
+          <t>Como devem ser organizados os recursos humanos de um C Op para a condução da campanha?</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>O custo estimado total, correspondente ao somatório dos custos estimados de todas as carências, conforme o item 5.3.4.3.</t>
+          <t>Em turnos, pois a condução ocorre ininterruptamente (24h), conforme o item 5.2.1.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Pág. 38</t>
+          <t>Pág 52</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Cap. 5 - Plano Setorial de Mobilização Militar</t>
+          <t>Cap. V - Estado-Maior Conjunto</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Quais documentos servem de referência para a elaboração do PSMM?</t>
+          <t>Qual é o objetivo principal das reuniões formais no EMCj?</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>O PEECFA, a Doutrina de Operações Conjuntas e diversas portarias normativas de mobilização (MD41), conforme o item 5.3.3.1.</t>
+          <t>Viabilizar a tomada de decisões que resultem em ações a serem executadas pelas F Cte e que requeiram coordenação, conforme o item 5.2.3.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Pág. 38</t>
+          <t>Pág 52</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Cap. 5 - Plano Setorial de Mobilização Militar</t>
+          <t>Cap. V - Estado-Maior Conjunto</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>O que deve ser proposto em relação à Base Industrial de Defesa na fase de Preparo da Mobilização?</t>
+          <t>A quem compete coordenar as reuniões formais do C Op para aprovação da Ordem de Coordenação?</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>A colocação de encomendas educativas, prioritariamente nas Empresas Estratégicas de Defesa (EED) e nas Empresas de Defesa (ED), conforme o item 5.3.5.1, alínea "b".</t>
+          <t>Ao Chefe do EMCj, conforme o item 5.3.1, alínea 'e'.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Pág. 39</t>
+          <t>Pág 53</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Cap. 5 - Plano Setorial de Mobilização Militar</t>
+          <t>Cap. V - Estado-Maior Conjunto</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>De que modo as ações planejadas devem ser empreendidas a partir da decretação da Mobilização Nacional?</t>
+          <t>Qual é a responsabilidade das seções do EMCj em relação à doutrina?</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>De modo acelerado e compulsório, conforme planejadas na fase do Preparo, conforme o item 5.3.6.</t>
+          <t>Zelar pela observância dos aspectos doutrinários conjuntos, propondo ajustes adequados, conforme o item 5.3.2, alínea 'd'.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Pág. 39</t>
+          <t>Pág 53</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Cap. 5 - Plano Setorial de Mobilização Militar</t>
+          <t>Cap. V - Estado-Maior Conjunto</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Quando devem ser previstas as ações de Desmobilização?</t>
+          <t>Qual seção coordena os pedidos de recompletamento de pessoal e controla os efetivos das forças componentes?</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Para a retomada da situação de normalidade do País quando cessarem os motivos que determinaram a Mobilização, conforme o item 5.3.8.</t>
+          <t>A Seção de Pessoal (D-1), conforme o item 5.3.3, alíneas 'c' e 'd'.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Pág. 39</t>
+          <t>Pág 53</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Cap. 5 - Plano Setorial de Mobilização Militar</t>
+          <t>Cap. V - Estado-Maior Conjunto</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Como deve ser iniciada a execução da Desmobilização Militar?</t>
+          <t>Quem é responsável por planejar e coordenar a evacuação, o sepultamento e a emissão de certidões de óbito?</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>De forma ordenada e gradativa, a fim de fazer face a um possível recrudescimento das ações do oponente, conforme o item 5.3.9.</t>
+          <t>O Chefe da Seção de Pessoal (D-1), conforme o item 5.3.3, alínea 'o'.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Pág. 40</t>
+          <t>Pág 54</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Cap. 5 - Plano Setorial de Mobilização Militar</t>
+          <t>Cap. V - Estado-Maior Conjunto</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Quem assina e quem aprova o PSMM, respectivamente?</t>
+          <t>Qual seção mantém atualizadas as ordens de batalha do inimigo e o mapa de situação?</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>É assinado pelo Chefe do Estado-Maior Conjunto das Forças Armadas (CEMCFA) e aprovado pelo Ministro de Estado da Defesa, conforme o item 5.3.13.</t>
+          <t>A Seção de Inteligência (D-2), conforme o item 5.3.4, alínea 'g'.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Pág. 40</t>
+          <t>Pág 54</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Cap. 5 - Plano Setorial de Mobilização Militar</t>
+          <t>Cap. V - Estado-Maior Conjunto</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Qual é o principal anexo ao PSMM?</t>
+          <t>Quem coordena as atividades de meteorologia e oceanografia (METOC) entre os elementos dos demais Estados-Maiores?</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>A Lista de Carências, contendo as carências logísticas das FS não atendidas no âmbito do SISMOMIL, conforme o item 5.3.12.</t>
+          <t>O Chefe da Seção de Inteligência (D-2), conforme o item 5.3.4, alínea 's'.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Pág. 40</t>
+          <t>Pág 54</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Cap. 5 - Plano Setorial de Mobilização Militar</t>
+          <t>Cap. V - Estado-Maior Conjunto</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Quem é o responsável pela consolidação e formalização do documento Exame de Situação Operacional?</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>O Chefe da Seção de Operações (D-3), conforme o item 5.3.5, alínea 'c'.</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Pág 55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Cap. V - Estado-Maior Conjunto</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Qual seção deve ativar a Subseção de Guerra Cibernética (SGC) em sua estrutura?</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A Seção de Operações (D-3), conforme o item 5.3.5, alínea 'o'.</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Pág 55</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Cap. V - Estado-Maior Conjunto</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Quem estabelece os níveis mínimos de estoque nas diversas classes de suprimento?</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>O Chefe da Seção de Logística e Mobilização (D-4), conforme o item 5.3.6, alínea 'b'.</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Pág 55</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Cap. V - Estado-Maior Conjunto</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Quem consolida as Listas de Necessidades das seções em uma única Lista de Necessidades Complementar (LNC)?</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>O Chefe da Seção de Logística e Mobilização (D-4), conforme o item 5.3.6, alínea 'r'.</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Pág 56</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Cap. V - Estado-Maior Conjunto</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Quem propõe ao Comandante o Estado Final Desejado Operacional (EFDOp), caso não definido superiormente?</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>O Chefe da Seção de Planejamento (D-5), conforme o item 5.3.7, alínea 'b'.</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Pág 56</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Cap. V - Estado-Maior Conjunto</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Qual seção é responsável por realizar o Gerenciamento do Risco Operacional (GRO)?</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A Seção de Planejamento (D-5), conforme o item 5.3.7, alínea 'l'.</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Pág 56</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Cap. V - Estado-Maior Conjunto</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Quem planeja as atividades de Guerra Eletrônica e gerencia a matriz de processamento da informação?</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>O Chefe da Seção de Comando e Controle (D-6), conforme o item 5.3.8, alíneas 'h' e 'k'.</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Pág 57</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Cap. V - Estado-Maior Conjunto</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Qual seção deve orientar e controlar a atuação da mídia nos aspectos que possam interferir nas operações?</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A Seção de Comunicação Social (D-7), conforme o item 5.3.9, alínea 'g'.</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Pág 57</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Cap. V - Estado-Maior Conjunto</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Qual seção apresenta a análise do ambiente informacional, considerando capacidades como Ops Psicológicas e Defesa Cibernética?</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A Seção de Operação de Informação (D-8), conforme o item 5.3.10, alínea 'a'.</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Pág 57</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Cap. V - Estado-Maior Conjunto</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Quem assessora sobre implicações políticas, culturais e religiosas nas Operações de Informação?</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>O Chefe da Seção de Operação de Informação (D-8), conforme o item 5.3.10, alínea 'e'.</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Pág 58</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Cap. V - Estado-Maior Conjunto</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Qual seção verifica serviços públicos e infraestruturas críticas a serem preservados no TO/A Op?</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A Seção de Assuntos Civis (D-9), conforme o item 5.3.11, alínea 'e'.</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Pág 58</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Cap. V - Estado-Maior Conjunto</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Quem realiza a programação orçamentária e financeira no âmbito do C Op?</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>O Chefe da Seção de Administração Financeira (D-10), conforme o item 5.3.12, alínea 'c'.</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Pág 58</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Cap. V - Estado-Maior Conjunto</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Por que cabe ao EMCFA auxiliar a estruturação inicial do EMCj de um Comando Operacional?</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Devido à inexistência de comandos operacionais conjuntos permanentemente ativados em tempo de paz, conforme os itens 5.4.1 e 5.4.2.</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Pág 59</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Cap. V - Estado-Maior Conjunto</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>De quem é a atribuição final da estruturação das Seções do EMCj, segundo a necessidade da operação?</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Do Comandante Operacional, conforme o item 5.4.4.</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Pág 59</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Cap. V - Estado-Maior Conjunto</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Onde o Comandante pode encontrar sugestões de estrutura inicial para facilitar a composição do EMCj?</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Nos Anexos A a J do volume citado, conforme o item 5.4.4.</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Pág 59</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Cap. V - Estado-Maior Conjunto</t>
         </is>
       </c>
     </row>
